--- a/NEET_2024_Excel/Individual_Excel/140610.xlsx
+++ b/NEET_2024_Excel/Individual_Excel/140610.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="8">
   <si>
     <t>Srlno.</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4821,127 +4821,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
-      <c r="C261" t="s">
-        <v>5</v>
-      </c>
-      <c r="D261" t="s">
-        <v>6</v>
-      </c>
-      <c r="E261" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="C262" t="s">
-        <v>5</v>
-      </c>
-      <c r="D262" t="s">
-        <v>6</v>
-      </c>
-      <c r="E262" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="C263" t="s">
-        <v>5</v>
-      </c>
-      <c r="D263" t="s">
-        <v>6</v>
-      </c>
-      <c r="E263" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="C264" t="s">
-        <v>5</v>
-      </c>
-      <c r="D264" t="s">
-        <v>6</v>
-      </c>
-      <c r="E264" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="C265" t="s">
-        <v>5</v>
-      </c>
-      <c r="D265" t="s">
-        <v>6</v>
-      </c>
-      <c r="E265" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="C266" t="s">
-        <v>5</v>
-      </c>
-      <c r="D266" t="s">
-        <v>6</v>
-      </c>
-      <c r="E266" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="C267" t="s">
-        <v>5</v>
-      </c>
-      <c r="D267" t="s">
-        <v>6</v>
-      </c>
-      <c r="E267" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="C268" t="s">
-        <v>5</v>
-      </c>
-      <c r="D268" t="s">
-        <v>6</v>
-      </c>
-      <c r="E268" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="C269" t="s">
-        <v>5</v>
-      </c>
-      <c r="D269" t="s">
-        <v>6</v>
-      </c>
-      <c r="E269" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="C270" t="s">
-        <v>5</v>
-      </c>
-      <c r="D270" t="s">
-        <v>6</v>
-      </c>
-      <c r="E270" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="C271" t="s">
-        <v>5</v>
-      </c>
-      <c r="D271" t="s">
-        <v>6</v>
-      </c>
-      <c r="E271" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
